--- a/shape_analysis_stats_and_outliers_final.xlsx
+++ b/shape_analysis_stats_and_outliers_final.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Outliers" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5368.011276681434</v>
+        <v>3845.859041482078</v>
       </c>
       <c r="C2" t="n">
-        <v>2440.928715263794</v>
+        <v>2152.200563834072</v>
       </c>
     </row>
     <row r="3">
@@ -471,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6338.267220817026</v>
+        <v>2353.050516573614</v>
       </c>
       <c r="C3" t="n">
-        <v>2006.225584736264</v>
+        <v>1596.252685203639</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5">
@@ -497,390 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48261</v>
+        <v>7472</v>
       </c>
       <c r="C5" t="n">
         <v>17742</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>shape</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>num_faces</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>num_vertices</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>triangles</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>quads</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bounding_box</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>D01102</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>156</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91</v>
-      </c>
-      <c r="E2" t="n">
-        <v>156</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[[ 0.025      -0.23769697  0.82195698]
- [ 0.025       0.31569192 -0.12793006]
- [ 0.62896    -0.23769697  0.82195698]
- [ 0.62896     0.31569192 -0.12793006]
- [ 0.025       0.0700917   1.0012697 ]
- [ 0.025       0.62348058  0.05138265]
- [ 0.62896     0.0700917   1.0012697 ]
- [ 0.62896     0.62348058  0.05138265]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>m1765</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Computer</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>156</v>
-      </c>
-      <c r="D3" t="n">
-        <v>91</v>
-      </c>
-      <c r="E3" t="n">
-        <v>156</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[[ 0.025      -0.23769691  0.82195708]
- [ 0.025       0.31569179 -0.12793007]
- [ 0.62896    -0.23769691  0.82195708]
- [ 0.62896     0.31569179 -0.12793007]
- [ 0.025       0.07009171  1.00126969]
- [ 0.025       0.62348041  0.05138254]
- [ 0.62896     0.07009171  1.00126969]
- [ 0.62896     0.62348041  0.05138254]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>D01121</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48</v>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[[0.567857  0.025     0.0521429]
- [0.567857  0.975     0.0521429]
- [0.025     0.025     0.0521429]
- [0.025     0.975     0.0521429]
- [0.567857  0.025     0.025    ]
- [0.567857  0.975     0.025    ]
- [0.025     0.025     0.025    ]
- [0.025     0.975     0.025    ]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>D01139</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>132</v>
-      </c>
-      <c r="D5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E5" t="n">
-        <v>132</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[[0.02489893 0.975      0.05532056]
- [0.02489893 0.025      0.05532056]
- [0.49989893 0.975      0.05690386]
- [0.49989893 0.025      0.05690386]
- [0.025      0.975      0.025     ]
- [0.025      0.025      0.025     ]
- [0.5        0.975      0.0265833 ]
- [0.5        0.025      0.0265833 ]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>D01194</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>92</v>
-      </c>
-      <c r="D6" t="n">
-        <v>64</v>
-      </c>
-      <c r="E6" t="n">
-        <v>92</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[[0.0373238  0.975      0.528047  ]
- [0.0373238  0.025      0.528047  ]
- [0.0322227  0.975      0.025     ]
- [0.0322227  0.025      0.025     ]
- [0.02887075 0.975      0.52813272]
- [0.02887075 0.025      0.52813272]
- [0.02376965 0.975      0.02508572]
- [0.02376965 0.025      0.02508572]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>m1708</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" t="n">
-        <v>48</v>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[[0.567857 0.025    0.052143]
- [0.567857 0.975    0.052143]
- [0.025    0.025    0.052143]
- [0.025    0.975    0.052143]
- [0.567857 0.025    0.025   ]
- [0.567857 0.975    0.025   ]
- [0.025    0.025    0.025   ]
- [0.025    0.975    0.025   ]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>m434</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>House</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>138</v>
-      </c>
-      <c r="D8" t="n">
-        <v>89</v>
-      </c>
-      <c r="E8" t="n">
-        <v>138</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>[[0.658333 0.025    0.975   ]
- [0.658333 0.025    0.025   ]
- [0.658333 0.975    0.975   ]
- [0.658333 0.975    0.025   ]
- [0.025    0.025    0.975   ]
- [0.025    0.025    0.025   ]
- [0.025    0.975    0.975   ]
- [0.025    0.975    0.025   ]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>m462</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>House</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>104</v>
-      </c>
-      <c r="D9" t="n">
-        <v>82</v>
-      </c>
-      <c r="E9" t="n">
-        <v>104</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>[[0.69880666 0.60382    0.97287702]
- [0.68004983 0.60382    0.01492997]
- [0.02691103 0.60382    0.9860329 ]
- [0.00815419 0.60382    0.02808584]
- [0.69880666 0.025      0.97287702]
- [0.68004983 0.025      0.01492997]
- [0.02691103 0.025      0.9860329 ]
- [0.00815419 0.025      0.02808584]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>m858</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Shelf</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>88</v>
-      </c>
-      <c r="D10" t="n">
-        <v>90</v>
-      </c>
-      <c r="E10" t="n">
-        <v>88</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>[[0.975 0.5   0.12 ]
- [0.025 0.5   0.12 ]
- [0.975 0.025 0.12 ]
- [0.025 0.025 0.12 ]
- [0.975 0.5   0.025]
- [0.025 0.5   0.025]
- [0.975 0.025 0.025]
- [0.025 0.025 0.025]]</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/shape_analysis_stats_and_outliers_final.xlsx
+++ b/shape_analysis_stats_and_outliers_final.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3845.859041482078</v>
+        <v>3498.703987112364</v>
       </c>
       <c r="C2" t="n">
-        <v>2152.200563834072</v>
+        <v>1931.335481272654</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2353.050516573614</v>
+        <v>2064.551361947742</v>
       </c>
       <c r="C3" t="n">
-        <v>1596.252685203639</v>
+        <v>1261.373732726207</v>
       </c>
     </row>
     <row r="4">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7472</v>
+        <v>7450</v>
       </c>
       <c r="C5" t="n">
-        <v>17742</v>
+        <v>7473</v>
       </c>
     </row>
   </sheetData>

--- a/shape_analysis_stats_and_outliers_final.xlsx
+++ b/shape_analysis_stats_and_outliers_final.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Outliers" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +458,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3498.703987112364</v>
+        <v>3344.707227439771</v>
       </c>
       <c r="C2" t="n">
-        <v>1931.335481272654</v>
+        <v>1864.572886892609</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +471,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2064.551361947742</v>
+        <v>861.8760486023741</v>
       </c>
       <c r="C3" t="n">
-        <v>1261.373732726207</v>
+        <v>549.6312880413477</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +484,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>358</v>
+        <v>148</v>
       </c>
       <c r="C4" t="n">
-        <v>244</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +497,102 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7450</v>
+        <v>5000</v>
       </c>
       <c r="C5" t="n">
-        <v>7473</v>
+        <v>4949</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>shape</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>num_faces</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>num_vertices</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>triangles</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>quads</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>bounding_box</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>D00834</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tree</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>148</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86</v>
+      </c>
+      <c r="E2" t="n">
+        <v>148</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[[-3.67197712e-01  7.06940796e-05 -1.38450660e-02]
+ [ 8.94734712e-01 -8.13409284e-02 -9.88732037e-02]
+ [-3.45291870e-01  1.12393493e-01  2.03721871e-01]
+ [ 9.16640554e-01  3.09818709e-02  1.18693733e-01]
+ [-3.64183475e-01  1.02153525e-01 -6.68506325e-02]
+ [ 8.97748950e-01  2.07419023e-02 -1.51878770e-01]
+ [-3.42277632e-01  2.14476324e-01  1.50716304e-01]
+ [ 9.19654792e-01  1.33064702e-01  6.56881666e-02]]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/shape_analysis_stats_and_outliers_final.xlsx
+++ b/shape_analysis_stats_and_outliers_final.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Outliers" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3344.707227439771</v>
+        <v>10582.27258064516</v>
       </c>
       <c r="C2" t="n">
-        <v>1864.572886892609</v>
+        <v>5726.235483870968</v>
       </c>
     </row>
     <row r="3">
@@ -471,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.8760486023741</v>
+        <v>974.549253953124</v>
       </c>
       <c r="C3" t="n">
-        <v>549.6312880413477</v>
+        <v>1790.330252793922</v>
       </c>
     </row>
     <row r="4">
@@ -484,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148</v>
+        <v>6928</v>
       </c>
       <c r="C4" t="n">
-        <v>86</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="5">
@@ -497,102 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5000</v>
+        <v>12999</v>
       </c>
       <c r="C5" t="n">
-        <v>4949</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>shape</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>num_faces</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>num_vertices</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>triangles</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>quads</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>bounding_box</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>D00834</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Tree</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>148</v>
-      </c>
-      <c r="D2" t="n">
-        <v>86</v>
-      </c>
-      <c r="E2" t="n">
-        <v>148</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[[-3.67197712e-01  7.06940796e-05 -1.38450660e-02]
- [ 8.94734712e-01 -8.13409284e-02 -9.88732037e-02]
- [-3.45291870e-01  1.12393493e-01  2.03721871e-01]
- [ 9.16640554e-01  3.09818709e-02  1.18693733e-01]
- [-3.64183475e-01  1.02153525e-01 -6.68506325e-02]
- [ 8.97748950e-01  2.07419023e-02 -1.51878770e-01]
- [-3.42277632e-01  2.14476324e-01  1.50716304e-01]
- [ 9.19654792e-01  1.33064702e-01  6.56881666e-02]]</t>
-        </is>
+        <v>34591</v>
       </c>
     </row>
   </sheetData>

--- a/shape_analysis_stats_and_outliers_final.xlsx
+++ b/shape_analysis_stats_and_outliers_final.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10582.27258064516</v>
+        <v>10581.56577885391</v>
       </c>
       <c r="C2" t="n">
-        <v>5726.235483870968</v>
+        <v>5658.534705407586</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>974.549253953124</v>
+        <v>974.6159109675983</v>
       </c>
       <c r="C3" t="n">
-        <v>1790.330252793922</v>
+        <v>1180.341488415733</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>12999</v>
       </c>
       <c r="C5" t="n">
-        <v>34591</v>
+        <v>16599</v>
       </c>
     </row>
   </sheetData>
